--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="197">
   <si>
     <t>TestCase</t>
   </si>
